--- a/Gantt-diagram.xlsx
+++ b/Gantt-diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benib\Videos\asdsd\Suli\Iskola\IKT Projektmunka\10.E\Kolodkó projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD19C4-4FFA-421F-BA00-07CB4D770BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4305AE1D-B16C-44E5-ACA7-CD68B8F8C9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCE84C89-8482-47EF-9FB6-46CB10653775}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -461,6 +461,27 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,6 +491,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,15 +527,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,9 +536,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,22 +554,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -871,7 +883,7 @@
   <dimension ref="A1:AN31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -907,235 +919,235 @@
       <c r="A1" s="8"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="42" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="43"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="49"/>
     </row>
     <row r="2" spans="1:40" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
     </row>
     <row r="3" spans="1:40" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="53"/>
     </row>
     <row r="4" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="37"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="35"/>
     </row>
     <row r="5" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="32" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="32" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="32" t="s">
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="32" t="s">
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="32" t="s">
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="34"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="44"/>
     </row>
     <row r="6" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="50"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="18">
         <v>46000</v>
       </c>
@@ -1246,12 +1258,12 @@
       </c>
     </row>
     <row r="7" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="50"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -1290,19 +1302,19 @@
       <c r="AN7" s="17"/>
     </row>
     <row r="8" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="50"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="17"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
@@ -1334,12 +1346,12 @@
       <c r="AN8" s="17"/>
     </row>
     <row r="9" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="50"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -1378,12 +1390,12 @@
       <c r="AN9" s="17"/>
     </row>
     <row r="10" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="50"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -1406,8 +1418,8 @@
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="17"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="57"/>
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
       <c r="AE10" s="16"/>
@@ -1422,12 +1434,12 @@
       <c r="AN10" s="17"/>
     </row>
     <row r="11" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="50"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -1452,9 +1464,9 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="16"/>
       <c r="AB11" s="17"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="56"/>
       <c r="AF11" s="16"/>
       <c r="AG11" s="16"/>
       <c r="AH11" s="16"/>
@@ -1466,12 +1478,12 @@
       <c r="AN11" s="17"/>
     </row>
     <row r="12" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="50"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -1499,7 +1511,7 @@
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
+      <c r="AF12" s="22"/>
       <c r="AG12" s="16"/>
       <c r="AH12" s="16"/>
       <c r="AI12" s="16"/>
@@ -1510,10 +1522,10 @@
       <c r="AN12" s="17"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="50"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1552,12 +1564,12 @@
       <c r="AN13" s="4"/>
     </row>
     <row r="14" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -1596,12 +1608,12 @@
       <c r="AN14" s="17"/>
     </row>
     <row r="15" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="50"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -1640,12 +1652,12 @@
       <c r="AN15" s="17"/>
     </row>
     <row r="16" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="50"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -1684,12 +1696,12 @@
       <c r="AN16" s="17"/>
     </row>
     <row r="17" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="50"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="15"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -1728,12 +1740,12 @@
       <c r="AN17" s="17"/>
     </row>
     <row r="18" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="50"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="15"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -1772,12 +1784,12 @@
       <c r="AN18" s="17"/>
     </row>
     <row r="19" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="50"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -1816,12 +1828,12 @@
       <c r="AN19" s="17"/>
     </row>
     <row r="20" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -1860,12 +1872,12 @@
       <c r="AN20" s="17"/>
     </row>
     <row r="21" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="50"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -1904,12 +1916,12 @@
       <c r="AN21" s="17"/>
     </row>
     <row r="22" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="50"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -1948,12 +1960,12 @@
       <c r="AN22" s="17"/>
     </row>
     <row r="23" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="50"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -1992,12 +2004,12 @@
       <c r="AN23" s="17"/>
     </row>
     <row r="24" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="50"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="15"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -2036,12 +2048,12 @@
       <c r="AN24" s="17"/>
     </row>
     <row r="25" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="50"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -2080,12 +2092,12 @@
       <c r="AN25" s="17"/>
     </row>
     <row r="26" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="50"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="15"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -2124,12 +2136,12 @@
       <c r="AN26" s="17"/>
     </row>
     <row r="27" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -2168,9 +2180,9 @@
       <c r="AN27" s="14"/>
     </row>
     <row r="28" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="10"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -2210,9 +2222,9 @@
       <c r="AN28" s="9"/>
     </row>
     <row r="29" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="10"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -2252,9 +2264,9 @@
       <c r="AN29" s="9"/>
     </row>
     <row r="30" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="10"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -2294,9 +2306,9 @@
       <c r="AN30" s="9"/>
     </row>
     <row r="31" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="10"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -2337,6 +2349,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E1:AK1"/>
+    <mergeCell ref="E2:AK2"/>
+    <mergeCell ref="E3:AK3"/>
+    <mergeCell ref="AC5:AJ5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="E4:AN4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="U5:AB5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="AL1:AN3"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:C30"/>
@@ -2353,29 +2388,6 @@
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E1:AK1"/>
-    <mergeCell ref="E2:AK2"/>
-    <mergeCell ref="E3:AK3"/>
-    <mergeCell ref="AC5:AJ5"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="E4:AN4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="U5:AB5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="AL1:AN3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Gantt-diagram.xlsx
+++ b/Gantt-diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benib\Videos\asdsd\Suli\Iskola\IKT Projektmunka\10.E\Kolodkó projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8D88A6-BAA6-4043-AF54-E3DA6C4575E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4B2FCE-153D-49E2-994A-D4AC18DC8840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCE84C89-8482-47EF-9FB6-46CB10653775}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,81 +496,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -589,15 +517,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,12 +527,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,15 +541,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,6 +555,96 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390CF5E1-9AF5-415F-8247-8C3CB6807AA3}">
   <dimension ref="A1:AN64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -1008,233 +1002,233 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="41"/>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="34" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="35"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="65"/>
     </row>
     <row r="2" spans="1:40" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="42"/>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="37"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="67"/>
     </row>
     <row r="3" spans="1:40" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="42"/>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="39"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="69"/>
     </row>
     <row r="4" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="31"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="63"/>
     </row>
     <row r="5" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="42"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="26" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="26" t="s">
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="26" t="s">
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="26" t="s">
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="28"/>
+      <c r="AL5" s="61"/>
+      <c r="AM5" s="61"/>
+      <c r="AN5" s="62"/>
     </row>
     <row r="6" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="42"/>
       <c r="E6" s="14">
         <v>46000</v>
@@ -1346,11 +1340,11 @@
       </c>
     </row>
     <row r="7" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="59"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="42"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1390,11 +1384,11 @@
       <c r="AN7" s="12"/>
     </row>
     <row r="8" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="59"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="42"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1434,11 +1428,11 @@
       <c r="AN8" s="12"/>
     </row>
     <row r="9" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="59"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="42"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1478,11 +1472,11 @@
       <c r="AN9" s="12"/>
     </row>
     <row r="10" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="59"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="42"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1515,18 +1509,18 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
       <c r="AI10" s="18"/>
-      <c r="AJ10" s="55"/>
+      <c r="AJ10" s="28"/>
       <c r="AK10" s="11"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="12"/>
     </row>
     <row r="11" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="59"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="42"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1560,17 +1554,17 @@
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
       <c r="AJ11" s="20"/>
-      <c r="AK11" s="56"/>
-      <c r="AL11" s="57"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="30"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="12"/>
     </row>
     <row r="12" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="42"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1610,9 +1604,9 @@
       <c r="AN12" s="12"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="42"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1652,11 +1646,11 @@
       <c r="AN13" s="3"/>
     </row>
     <row r="14" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="42"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1664,7 +1658,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="50"/>
+      <c r="K14" s="26"/>
       <c r="L14" s="12"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -1685,7 +1679,7 @@
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
-      <c r="AF14" s="58"/>
+      <c r="AF14" s="31"/>
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
       <c r="AI14" s="11"/>
@@ -1696,11 +1690,11 @@
       <c r="AN14" s="12"/>
     </row>
     <row r="15" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="42"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1708,7 +1702,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="50"/>
+      <c r="K15" s="26"/>
       <c r="L15" s="12"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -1729,7 +1723,7 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
-      <c r="AF15" s="58"/>
+      <c r="AF15" s="31"/>
       <c r="AG15" s="11"/>
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
@@ -1740,11 +1734,11 @@
       <c r="AN15" s="12"/>
     </row>
     <row r="16" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="65"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="42"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -1752,7 +1746,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="50"/>
+      <c r="K16" s="26"/>
       <c r="L16" s="12"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -1774,7 +1768,7 @@
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
-      <c r="AG16" s="58"/>
+      <c r="AG16" s="31"/>
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="12"/>
@@ -1784,11 +1778,11 @@
       <c r="AN16" s="12"/>
     </row>
     <row r="17" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="65"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="42"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -1796,7 +1790,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="50"/>
+      <c r="K17" s="26"/>
       <c r="L17" s="12"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -1818,7 +1812,7 @@
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
       <c r="AF17" s="11"/>
-      <c r="AG17" s="58"/>
+      <c r="AG17" s="31"/>
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
       <c r="AJ17" s="12"/>
@@ -1828,11 +1822,11 @@
       <c r="AN17" s="12"/>
     </row>
     <row r="18" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="65"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="42"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -1840,7 +1834,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="50"/>
+      <c r="K18" s="26"/>
       <c r="L18" s="12"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -1872,11 +1866,11 @@
       <c r="AN18" s="12"/>
     </row>
     <row r="19" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="65"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="42"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -1884,7 +1878,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="50"/>
+      <c r="K19" s="26"/>
       <c r="L19" s="12"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -1916,11 +1910,11 @@
       <c r="AN19" s="12"/>
     </row>
     <row r="20" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="65"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="42"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -1928,7 +1922,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="50"/>
+      <c r="K20" s="26"/>
       <c r="L20" s="12"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -1960,11 +1954,11 @@
       <c r="AN20" s="12"/>
     </row>
     <row r="21" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="65"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="42"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -1972,7 +1966,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="50"/>
+      <c r="K21" s="26"/>
       <c r="L21" s="12"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -2004,11 +1998,11 @@
       <c r="AN21" s="12"/>
     </row>
     <row r="22" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="65"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="42"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -2016,7 +2010,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="50"/>
+      <c r="K22" s="26"/>
       <c r="L22" s="12"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -2048,11 +2042,11 @@
       <c r="AN22" s="12"/>
     </row>
     <row r="23" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="65"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="42"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -2060,7 +2054,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="50"/>
+      <c r="K23" s="26"/>
       <c r="L23" s="12"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -2092,11 +2086,11 @@
       <c r="AN23" s="12"/>
     </row>
     <row r="24" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="42"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -2104,7 +2098,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="50"/>
+      <c r="K24" s="26"/>
       <c r="L24" s="12"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -2136,11 +2130,11 @@
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="65"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="42"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -2148,7 +2142,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="50"/>
+      <c r="K25" s="26"/>
       <c r="L25" s="12"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -2180,11 +2174,11 @@
       <c r="AN25" s="12"/>
     </row>
     <row r="26" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="65"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="42"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -2192,7 +2186,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="50"/>
+      <c r="K26" s="26"/>
       <c r="L26" s="12"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -2224,11 +2218,11 @@
       <c r="AN26" s="12"/>
     </row>
     <row r="27" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="65"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="42"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -2257,7 +2251,7 @@
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
       <c r="AE27" s="9"/>
-      <c r="AF27" s="47"/>
+      <c r="AF27" s="23"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
       <c r="AI27" s="9"/>
@@ -2268,55 +2262,55 @@
       <c r="AN27" s="10"/>
     </row>
     <row r="28" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="65"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="42"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="49"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="70"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="50"/>
-      <c r="AM28" s="50"/>
-      <c r="AN28" s="51"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="27"/>
     </row>
     <row r="29" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="65"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="42"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -2347,7 +2341,7 @@
       <c r="AE29" s="9"/>
       <c r="AF29" s="9"/>
       <c r="AG29" s="9"/>
-      <c r="AH29" s="69"/>
+      <c r="AH29" s="37"/>
       <c r="AI29" s="9"/>
       <c r="AJ29" s="10"/>
       <c r="AK29" s="17"/>
@@ -2356,278 +2350,302 @@
       <c r="AN29" s="10"/>
     </row>
     <row r="30" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="66"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="42"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46" t="s">
+      <c r="L30" s="24"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="68"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="46"/>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="46"/>
-      <c r="AL30" s="46"/>
-      <c r="AM30" s="46"/>
-      <c r="AN30" s="48"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="22"/>
+      <c r="AL30" s="22"/>
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="24"/>
     </row>
     <row r="31" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="66"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="42"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="60"/>
-      <c r="AA31" s="60"/>
-      <c r="AB31" s="61"/>
-      <c r="AC31" s="60"/>
-      <c r="AD31" s="60"/>
-      <c r="AE31" s="60"/>
-      <c r="AF31" s="60"/>
-      <c r="AG31" s="60"/>
-      <c r="AH31" s="60"/>
-      <c r="AI31" s="60"/>
-      <c r="AJ31" s="61"/>
-      <c r="AK31" s="60"/>
-      <c r="AL31" s="60"/>
-      <c r="AM31" s="60"/>
-      <c r="AN31" s="61"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="32"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="32"/>
     </row>
     <row r="32" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="43"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="63"/>
-      <c r="Z32" s="63"/>
-      <c r="AA32" s="63"/>
-      <c r="AB32" s="64"/>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="63"/>
-      <c r="AE32" s="63"/>
-      <c r="AF32" s="63"/>
-      <c r="AG32" s="63"/>
-      <c r="AH32" s="63"/>
-      <c r="AI32" s="63"/>
-      <c r="AJ32" s="64"/>
-      <c r="AK32" s="63"/>
-      <c r="AL32" s="63"/>
-      <c r="AM32" s="63"/>
-      <c r="AN32" s="64"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="34"/>
+      <c r="AG32" s="34"/>
+      <c r="AH32" s="34"/>
+      <c r="AI32" s="34"/>
+      <c r="AJ32" s="35"/>
+      <c r="AK32" s="34"/>
+      <c r="AL32" s="34"/>
+      <c r="AM32" s="34"/>
+      <c r="AN32" s="35"/>
     </row>
     <row r="33" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="64"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="63"/>
-      <c r="Z33" s="63"/>
-      <c r="AA33" s="63"/>
-      <c r="AB33" s="64"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="72"/>
-      <c r="AE33" s="63"/>
-      <c r="AF33" s="63"/>
-      <c r="AG33" s="63"/>
-      <c r="AH33" s="63"/>
-      <c r="AI33" s="63"/>
-      <c r="AJ33" s="64"/>
-      <c r="AK33" s="63"/>
-      <c r="AL33" s="63"/>
-      <c r="AM33" s="63"/>
-      <c r="AN33" s="64"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="34"/>
+      <c r="AF33" s="34"/>
+      <c r="AG33" s="34"/>
+      <c r="AH33" s="34"/>
+      <c r="AI33" s="34"/>
+      <c r="AJ33" s="35"/>
+      <c r="AK33" s="34"/>
+      <c r="AL33" s="34"/>
+      <c r="AM33" s="34"/>
+      <c r="AN33" s="35"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D34" s="44"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D35" s="44"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D36" s="44"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D37" s="44"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D38" s="44"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D39" s="44"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D40" s="44"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D41" s="44"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D42" s="44"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D43" s="44"/>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D44" s="44"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D45" s="44"/>
+      <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D46" s="44"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D47" s="44"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D48" s="44"/>
+      <c r="D48" s="21"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="44"/>
+      <c r="D49" s="21"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="44"/>
+      <c r="D50" s="21"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="44"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="44"/>
+      <c r="D52" s="21"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="44"/>
+      <c r="D53" s="21"/>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="44"/>
+      <c r="D54" s="21"/>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="44"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="44"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="44"/>
+      <c r="D57" s="21"/>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="44"/>
+      <c r="D58" s="21"/>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="44"/>
+      <c r="D59" s="21"/>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D60" s="44"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D61" s="44"/>
+      <c r="D61" s="21"/>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="44"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D63" s="44"/>
+      <c r="D63" s="21"/>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D64" s="44"/>
+      <c r="D64" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E1:AK1"/>
+    <mergeCell ref="E2:AK2"/>
+    <mergeCell ref="E3:AK3"/>
+    <mergeCell ref="AC5:AJ5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="E4:AN4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="U5:AB5"/>
+    <mergeCell ref="AL1:AN3"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="D1:D32"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="A32:C32"/>
@@ -2644,30 +2662,6 @@
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E1:AK1"/>
-    <mergeCell ref="E2:AK2"/>
-    <mergeCell ref="E3:AK3"/>
-    <mergeCell ref="AC5:AJ5"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="E4:AN4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="U5:AB5"/>
-    <mergeCell ref="AL1:AN3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
